--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit2-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit2-Robo2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H2">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I2">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J2">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2862413333333333</v>
+        <v>0.07919566666666666</v>
       </c>
       <c r="N2">
-        <v>0.8587239999999999</v>
+        <v>0.237587</v>
       </c>
       <c r="O2">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459106</v>
       </c>
       <c r="P2">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459104</v>
       </c>
       <c r="Q2">
-        <v>0.02800308505377777</v>
+        <v>0.01710779511622222</v>
       </c>
       <c r="R2">
-        <v>0.252027765484</v>
+        <v>0.153970156046</v>
       </c>
       <c r="S2">
-        <v>0.002830001603240178</v>
+        <v>0.002047300983084302</v>
       </c>
       <c r="T2">
-        <v>0.002830001603240178</v>
+        <v>0.002047300983084302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H3">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I3">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J3">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.610326</v>
       </c>
       <c r="O3">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837771</v>
       </c>
       <c r="P3">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837769</v>
       </c>
       <c r="Q3">
-        <v>0.08512302089622222</v>
+        <v>0.1879602941008889</v>
       </c>
       <c r="R3">
-        <v>0.7661071880659999</v>
+        <v>1.691642646908</v>
       </c>
       <c r="S3">
-        <v>0.008602562365765393</v>
+        <v>0.02249333080501253</v>
       </c>
       <c r="T3">
-        <v>0.008602562365765393</v>
+        <v>0.02249333080501254</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H4">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I4">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J4">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.002296</v>
+        <v>0.012695</v>
       </c>
       <c r="N4">
-        <v>0.006888</v>
+        <v>0.038085</v>
       </c>
       <c r="O4">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="P4">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="Q4">
-        <v>0.0002246184453333333</v>
+        <v>0.002742365436666667</v>
       </c>
       <c r="R4">
-        <v>0.002021566008</v>
+        <v>0.02468128893</v>
       </c>
       <c r="S4">
-        <v>2.270001891541211E-05</v>
+        <v>0.00032818065778332</v>
       </c>
       <c r="T4">
-        <v>2.270001891541211E-05</v>
+        <v>0.0003281806577833201</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>24.890459</v>
       </c>
       <c r="I5">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J5">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2862413333333333</v>
+        <v>0.07919566666666666</v>
       </c>
       <c r="N5">
-        <v>0.8587239999999999</v>
+        <v>0.237587</v>
       </c>
       <c r="O5">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459106</v>
       </c>
       <c r="P5">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459104</v>
       </c>
       <c r="Q5">
-        <v>2.374892723812888</v>
+        <v>0.6570721647147777</v>
       </c>
       <c r="R5">
-        <v>21.37403451431599</v>
+        <v>5.913649482432999</v>
       </c>
       <c r="S5">
-        <v>0.2400074921390568</v>
+        <v>0.078632253872523</v>
       </c>
       <c r="T5">
-        <v>0.2400074921390568</v>
+        <v>0.078632253872523</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>24.890459</v>
       </c>
       <c r="I6">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J6">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>2.610326</v>
       </c>
       <c r="O6">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837771</v>
       </c>
       <c r="P6">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837769</v>
       </c>
       <c r="Q6">
         <v>7.219134697737109</v>
@@ -821,10 +821,10 @@
         <v>64.97221227963398</v>
       </c>
       <c r="S6">
-        <v>0.7295682861144855</v>
+        <v>0.8639185507710752</v>
       </c>
       <c r="T6">
-        <v>0.7295682861144855</v>
+        <v>0.8639185507710753</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>24.890459</v>
       </c>
       <c r="I7">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J7">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,28 +865,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.002296</v>
+        <v>0.012695</v>
       </c>
       <c r="N7">
-        <v>0.006888</v>
+        <v>0.038085</v>
       </c>
       <c r="O7">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="P7">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="Q7">
-        <v>0.01904949795466666</v>
+        <v>0.1053281256683333</v>
       </c>
       <c r="R7">
-        <v>0.171445481592</v>
+        <v>0.9479531310149999</v>
       </c>
       <c r="S7">
-        <v>0.00192514894873536</v>
+        <v>0.01260468539412947</v>
       </c>
       <c r="T7">
-        <v>0.00192514894873536</v>
+        <v>0.01260468539412947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.142734</v>
+        <v>0.173491</v>
       </c>
       <c r="H8">
-        <v>0.428202</v>
+        <v>0.520473</v>
       </c>
       <c r="I8">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J8">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2862413333333333</v>
+        <v>0.07919566666666666</v>
       </c>
       <c r="N8">
-        <v>0.8587239999999999</v>
+        <v>0.237587</v>
       </c>
       <c r="O8">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459106</v>
       </c>
       <c r="P8">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459104</v>
       </c>
       <c r="Q8">
-        <v>0.04085637047199999</v>
+        <v>0.01373973540566666</v>
       </c>
       <c r="R8">
-        <v>0.367707334248</v>
+        <v>0.123657618651</v>
       </c>
       <c r="S8">
-        <v>0.00412895913847665</v>
+        <v>0.001644243084058581</v>
       </c>
       <c r="T8">
-        <v>0.00412895913847665</v>
+        <v>0.001644243084058581</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.142734</v>
+        <v>0.173491</v>
       </c>
       <c r="H9">
-        <v>0.428202</v>
+        <v>0.520473</v>
       </c>
       <c r="I9">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J9">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>2.610326</v>
       </c>
       <c r="O9">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837771</v>
       </c>
       <c r="P9">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837769</v>
       </c>
       <c r="Q9">
-        <v>0.124194090428</v>
+        <v>0.1509560226886666</v>
       </c>
       <c r="R9">
-        <v>1.117746813852</v>
+        <v>1.358604204198</v>
       </c>
       <c r="S9">
-        <v>0.01255109836467037</v>
+        <v>0.01806500554591917</v>
       </c>
       <c r="T9">
-        <v>0.01255109836467037</v>
+        <v>0.01806500554591918</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.142734</v>
+        <v>0.173491</v>
       </c>
       <c r="H10">
-        <v>0.428202</v>
+        <v>0.520473</v>
       </c>
       <c r="I10">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J10">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.002296</v>
+        <v>0.012695</v>
       </c>
       <c r="N10">
-        <v>0.006888</v>
+        <v>0.038085</v>
       </c>
       <c r="O10">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="P10">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="Q10">
-        <v>0.000327717264</v>
+        <v>0.002202468245</v>
       </c>
       <c r="R10">
-        <v>0.002949455376</v>
+        <v>0.019822214205</v>
       </c>
       <c r="S10">
-        <v>3.311922171247941E-05</v>
+        <v>0.0002635708092461753</v>
       </c>
       <c r="T10">
-        <v>3.311922171247941E-05</v>
+        <v>0.0002635708092461754</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.002823666666666667</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H11">
-        <v>0.008470999999999999</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I11">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156263E-06</v>
       </c>
       <c r="J11">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156264E-06</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2862413333333333</v>
+        <v>0.07919566666666666</v>
       </c>
       <c r="N11">
-        <v>0.8587239999999999</v>
+        <v>0.237587</v>
       </c>
       <c r="O11">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459106</v>
       </c>
       <c r="P11">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459104</v>
       </c>
       <c r="Q11">
-        <v>0.0008082501115555554</v>
+        <v>1.979891666666667E-06</v>
       </c>
       <c r="R11">
-        <v>0.007274251003999999</v>
+        <v>1.7819025E-05</v>
       </c>
       <c r="S11">
-        <v>8.168203992983617E-05</v>
+        <v>2.369349251630604E-07</v>
       </c>
       <c r="T11">
-        <v>8.168203992983617E-05</v>
+        <v>2.369349251630605E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.002823666666666667</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H12">
-        <v>0.008470999999999999</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I12">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156263E-06</v>
       </c>
       <c r="J12">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156264E-06</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>2.610326</v>
       </c>
       <c r="O12">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837771</v>
       </c>
       <c r="P12">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837769</v>
       </c>
       <c r="Q12">
-        <v>0.002456896838444444</v>
+        <v>2.175271666666666E-05</v>
       </c>
       <c r="R12">
-        <v>0.022112071546</v>
+        <v>0.0001957744499999999</v>
       </c>
       <c r="S12">
-        <v>0.0002482948567431323</v>
+        <v>2.603161770051353E-06</v>
       </c>
       <c r="T12">
-        <v>0.0002482948567431323</v>
+        <v>2.603161770051354E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.002823666666666667</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H13">
-        <v>0.008470999999999999</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I13">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156263E-06</v>
       </c>
       <c r="J13">
-        <v>0.0003306320849418846</v>
+        <v>2.878077168156264E-06</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.002296</v>
+        <v>0.012695</v>
       </c>
       <c r="N13">
-        <v>0.006888</v>
+        <v>0.038085</v>
       </c>
       <c r="O13">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="P13">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="Q13">
-        <v>6.483138666666666E-06</v>
+        <v>3.17375E-07</v>
       </c>
       <c r="R13">
-        <v>5.8348248E-05</v>
+        <v>2.856375E-06</v>
       </c>
       <c r="S13">
-        <v>6.55188268916103E-07</v>
+        <v>3.798047294184933E-08</v>
       </c>
       <c r="T13">
-        <v>6.55188268916103E-07</v>
+        <v>3.798047294184934E-08</v>
       </c>
     </row>
   </sheetData>
